--- a/ClosedXML.Tests/Resource/Examples/Ranges/Sorting.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Ranges/Sorting.xlsx
@@ -169,16 +169,16 @@
     <x:xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
+    <x:xf numFmtId="14" fontId="0" fillId="9" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="14" fontId="0" fillId="7" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="46" fontId="0" fillId="3" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="46" fontId="0" fillId="2" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="14" fontId="0" fillId="9" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="14" fontId="0" fillId="7" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="46" fontId="0" fillId="5" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
@@ -243,19 +243,19 @@
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
+    <x:xf numFmtId="14" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="14" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="46" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="46" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="14" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="14" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -1678,28 +1678,28 @@
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
     <x:row r="1" spans="1:1">
-      <x:c r="A1" s="9" t="n">
+      <x:c r="A1" s="9">
+        <x:v>40573</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:1">
+      <x:c r="A2" s="10">
+        <x:v>40648</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:1">
+      <x:c r="A3" s="11" t="n">
         <x:v>0.378125</x:v>
       </x:c>
     </x:row>
-    <x:row r="2" spans="1:1">
-      <x:c r="A2" s="10" t="n">
+    <x:row r="4" spans="1:1">
+      <x:c r="A4" s="12" t="n">
         <x:v>1.05034722222222</x:v>
       </x:c>
     </x:row>
-    <x:row r="3" spans="1:1">
-      <x:c r="A3" s="5" t="n">
+    <x:row r="5" spans="1:1">
+      <x:c r="A5" s="5" t="n">
         <x:v>1.15</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="4" spans="1:1">
-      <x:c r="A4" s="11">
-        <x:v>40573</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="5" spans="1:1">
-      <x:c r="A5" s="12">
-        <x:v>40648</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:1">
@@ -1708,10 +1708,10 @@
       </x:c>
     </x:row>
     <x:row r="7" spans="1:1">
-      <x:c r="A7" s="3" t="s"/>
+      <x:c r="A7" s="7" t="s"/>
     </x:row>
     <x:row r="8" spans="1:1">
-      <x:c r="A8" s="7" t="s"/>
+      <x:c r="A8" s="3" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
@@ -1800,7 +1800,7 @@
       </x:c>
     </x:row>
     <x:row r="3" spans="1:1">
-      <x:c r="A3" s="9" t="n">
+      <x:c r="A3" s="11" t="n">
         <x:v>0.0447916666666667</x:v>
       </x:c>
     </x:row>
@@ -1810,7 +1810,7 @@
       </x:c>
     </x:row>
     <x:row r="5" spans="1:1">
-      <x:c r="A5" s="10" t="n">
+      <x:c r="A5" s="12" t="n">
         <x:v>1.05034722222222</x:v>
       </x:c>
     </x:row>
@@ -1851,12 +1851,12 @@
       </x:c>
     </x:row>
     <x:row r="2" spans="1:1">
-      <x:c r="A2" s="11">
+      <x:c r="A2" s="9">
         <x:v>40573</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:1">
-      <x:c r="A3" s="12">
+      <x:c r="A3" s="10">
         <x:v>40648</x:v>
       </x:c>
     </x:row>
